--- a/Norbi.xlsx
+++ b/Norbi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calinbule/Desktop/Proiecte/BNP-Lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5C366A-FB94-AC44-9EBD-8EBA5FD35CC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79458D6F-51B5-2847-8391-408DB79CE168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26860" xr2:uid="{191CC851-2580-2547-B0EF-F1F8D29C3D1F}"/>
+    <workbookView xWindow="18760" yWindow="460" windowWidth="32440" windowHeight="26860" activeTab="1" xr2:uid="{191CC851-2580-2547-B0EF-F1F8D29C3D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="omj46c - Anexa 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t xml:space="preserve">Nr. crt. </t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>Procentul prevăzut pentru fiecare componentă a activităţii notariale menţionate mai sus</t>
-  </si>
-  <si>
-    <t>1. Pentru acte translative ale dreptului de proprietate şi de constituire a altor drepturi reale care au ca obiect bunuri imobile</t>
   </si>
   <si>
     <t>a)</t>
@@ -228,6 +226,51 @@
   <si>
     <t>2,2%, dar nu mai
 puţin de 150 lei</t>
+  </si>
+  <si>
+    <t>I. Pentru acte translative ale dreptului de proprietate şi de constituire a altor drepturi reale care au ca obiect bunuri imobile</t>
+  </si>
+  <si>
+    <t>II. Pentru actele de schimb mobiliar sau imobiliar, onorariul se stabileşte la valoarea cea mai mare a oricăruia dintre bunurile care fac obiectul schimbului, după criteriile de la pct. 1, şi se majorează cu 25%.</t>
+  </si>
+  <si>
+    <t>IV. Pentru autentificarea contractelor de novaţie, de delegaţie, de compensare, de subrogaţie, de cesiune de creanţă, altele decât cele care se încadrează la anexa nr. 1 pct. 11, precum şi de remitere de datorie, onorariul se calculează prin aplicarea procentului de 0,3% la valoarea creanţelor, dar nu mai puţin de 150 lei.</t>
+  </si>
+  <si>
+    <t>VI. Pentru actele de donaţie sau partaj care au ca obiect locurile de înhumare, onorariul se stabileşte la 1% din valoare, dar nu mai puţin de 150 lei.</t>
+  </si>
+  <si>
+    <t>VII. Pentru actele de constituire a societăţilor comerciale şi de majorare a capitalului social atunci când aportul adus nu este în numerar, ci este aport în natură, constând în bunuri mobile sau imobile, onorariul se stabileşte potrivit tranşelor valorice şi procentelor prevăzute la pct. I, pentru bunurile imobile, şi la pct. XI lit. b), pentru bunurile mobile, dar nu mai puţin de 150 lei.</t>
+  </si>
+  <si>
+    <t>VIII. Pentru contractele de închiriere, onorariul se stabileşte prin aplicarea procentului 0,3%, calculat la valoarea chiriei pentru întreaga perioadă de închiriere prevăzută în contract, dar nu mai puţin de 50 lei.</t>
+  </si>
+  <si>
+    <t>X. Pentru actele de protest ale cambiilor, cecurilor şi ale altor titluri la ordin, onorariul se stabileşte la 1% din valoarea titlurilor protestate, dar nu mai puţin de 100 lei.</t>
+  </si>
+  <si>
+    <t>III. a) pentru bunurile imobile, onorariul se calculează după criteriile de la pct. I, la valoarea cotelor care revin copartajanţilor peste cota lor ideală</t>
+  </si>
+  <si>
+    <t>III. b) pentru bunurile mobile, onorariul se calculează prin aplicarea procentului de 0,25% la valoarea bunurilor care revin copartajanţilor peste cota lor ideală</t>
+  </si>
+  <si>
+    <t>IX. a) Pentru contractele de leasing operaţional, onorariul se stabileşte prin aplicarea procentului de 0,3%, calculat la valoarea contractelor de leasing, dar nu mai puţin de 100 lei.</t>
+  </si>
+  <si>
+    <t>IX. b) Pentru contractul de leasing financiar imobiliar sau mobiliar, onorariul se stabileşte potrivit tranşelor valorice şi procentelor prevăzute la pct. I, pentru bunurile imobile, şi la pct. XI lit. b), pentru bunurile mobile, dar nu mai puţin de 100 lei.</t>
+  </si>
+  <si>
+    <t>XIII. a) promisiuni bilaterale sau unilaterale de vânzare-cumpărare prin care se confirmă şi primirea preţului în parte sau în integralitatea sa, onorariul se stabileşte la 1% din valoarea achitată, dar nu mai puţin de 150 lei;</t>
+  </si>
+  <si>
+    <t>XIII b) alte acte evaluabile în bani, cu excepţia declaraţiilor pentru primirea restului de preţ, a sultei sau a oricărei sume de bani care a fost stabilită de părţi printr-un alt înscris autentificat de notarul public, onorariul se stabileşte la 0,25% din valoare, dar nu mai puţin de 50 lei.</t>
+  </si>
+  <si>
+    <t>Limita inferioara</t>
+  </si>
+  <si>
+    <t>Limita superioara</t>
   </si>
 </sst>
 </file>
@@ -426,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +477,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,6 +578,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9662669B-F8F7-7B4F-9F9D-49F530385B1E}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A2" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,938 +927,940 @@
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
     <col min="4" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="10.83203125" style="3"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>0.1</v>
       </c>
-      <c r="D3" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16">
         <v>0.75</v>
       </c>
-      <c r="G3" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="G3" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>6</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>7</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="F8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.1</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.75</v>
       </c>
-      <c r="G6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="5" t="s">
+      <c r="G10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="7">
         <v>0.1</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7">
         <v>0.75</v>
       </c>
-      <c r="G8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="G28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7">
         <v>0.1</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D32" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="7">
         <v>0.75</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="G32" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="B42" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1827,4 +1897,176 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED301D9-C09A-5542-8139-8264C1B6F65F}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.1640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0</v>
+      </c>
+      <c r="C3" s="44">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="43">
+        <v>15001</v>
+      </c>
+      <c r="C4" s="44">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="43">
+        <v>30001</v>
+      </c>
+      <c r="C5" s="44">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="43">
+        <v>60001</v>
+      </c>
+      <c r="C6" s="44">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="43">
+        <v>300001</v>
+      </c>
+      <c r="C7" s="44">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="43">
+        <v>600001</v>
+      </c>
+      <c r="C8" s="44">
+        <v>9.9999999999999908E+22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>